--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf8-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf8-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf8</t>
+  </si>
+  <si>
+    <t>Fgfr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf8</t>
-  </si>
-  <si>
-    <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H2">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6105093333333333</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N2">
-        <v>1.831528</v>
+        <v>2.446501</v>
       </c>
       <c r="O2">
-        <v>0.1519928013857481</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P2">
-        <v>0.1519928013857482</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q2">
-        <v>0.01516627285866667</v>
+        <v>0.02063759510222223</v>
       </c>
       <c r="R2">
-        <v>0.136496455728</v>
+        <v>0.18573835592</v>
       </c>
       <c r="S2">
-        <v>0.1519928013857481</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="T2">
-        <v>0.1519928013857482</v>
+        <v>0.1910612426590029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H3">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>9.999403000000001</v>
       </c>
       <c r="O3">
-        <v>0.8298192952305694</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P3">
-        <v>0.8298192952305695</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q3">
-        <v>0.08280172310866667</v>
+        <v>0.0843505195288889</v>
       </c>
       <c r="R3">
-        <v>0.7452155079780001</v>
+        <v>0.7591546757600001</v>
       </c>
       <c r="S3">
-        <v>0.8298192952305694</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="T3">
-        <v>0.8298192952305695</v>
+        <v>0.780910517930776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H4">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,90 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07255766666666667</v>
+        <v>0.119632</v>
       </c>
       <c r="N4">
-        <v>0.217673</v>
+        <v>0.358896</v>
       </c>
       <c r="O4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q4">
-        <v>0.001802477555333333</v>
+        <v>0.003027487146666667</v>
       </c>
       <c r="R4">
-        <v>0.016222297998</v>
+        <v>0.02724738432</v>
       </c>
       <c r="S4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="T4">
-        <v>0.01806400396610915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.024842</v>
-      </c>
-      <c r="H5">
-        <v>0.074526</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.0004976666666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.001493</v>
-      </c>
-      <c r="O5">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="P5">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="Q5">
-        <v>1.236303533333333E-05</v>
-      </c>
-      <c r="R5">
-        <v>0.000111267318</v>
-      </c>
-      <c r="S5">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="T5">
-        <v>0.0001238994175731531</v>
+        <v>0.02802823941022117</v>
       </c>
     </row>
   </sheetData>
